--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1804,18 +1804,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A80"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A36"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A37:A48"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="A64:A71"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A80"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
